--- a/Cleaned Summary Stats v6.xlsx
+++ b/Cleaned Summary Stats v6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\All Data\61A. 10min Backtests - Main vs RSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342A9A4E-5905-452B-9AB5-BEC4DA72BF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C2564F-EEA0-40D5-A396-EBA479193244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -699,7 +699,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U116" sqref="U116"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4967,7 +4969,7 @@
     <row r="89" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="3" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>3</v>
@@ -4992,13 +4994,13 @@
       </c>
       <c r="J89"/>
       <c r="K89" s="3" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="L89" s="4" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N89" s="17" t="s">
         <v>4</v>
@@ -5026,25 +5028,25 @@
         <v>11</v>
       </c>
       <c r="C90" s="6">
-        <v>271010.5</v>
+        <v>12654</v>
       </c>
       <c r="D90" s="6">
-        <v>-93638</v>
+        <v>-136433.5</v>
       </c>
       <c r="E90" s="6">
-        <v>106840</v>
+        <v>-115198</v>
       </c>
       <c r="F90" s="6">
-        <v>123837</v>
+        <v>-116793.5</v>
       </c>
       <c r="G90" s="6">
-        <v>77708</v>
+        <v>-112962</v>
       </c>
       <c r="H90" s="6">
-        <v>-21203</v>
+        <v>-155743</v>
       </c>
       <c r="I90" s="7">
-        <v>51313.5</v>
+        <v>9352.5</v>
       </c>
       <c r="J90"/>
       <c r="K90" s="5" t="s">
@@ -5054,25 +5056,25 @@
         <v>50160</v>
       </c>
       <c r="M90" s="6">
-        <v>147986.5</v>
+        <v>203348</v>
       </c>
       <c r="N90" s="6">
-        <v>-39581.5</v>
+        <v>-41240.5</v>
       </c>
       <c r="O90" s="6">
-        <v>164022</v>
+        <v>-232779.5</v>
       </c>
       <c r="P90" s="6">
-        <v>205721.5</v>
+        <v>-15573.5</v>
       </c>
       <c r="Q90" s="6">
-        <v>65313</v>
+        <v>36371.5</v>
       </c>
       <c r="R90" s="6">
-        <v>-138035</v>
+        <v>28404.5</v>
       </c>
       <c r="S90" s="7">
-        <v>-37201.5</v>
+        <v>26182</v>
       </c>
       <c r="T90" s="1"/>
     </row>
@@ -5082,25 +5084,25 @@
         <v>12</v>
       </c>
       <c r="C91" s="6">
-        <v>12757.5</v>
+        <v>389.5</v>
       </c>
       <c r="D91" s="6">
-        <v>-1367</v>
+        <v>-1778.5</v>
       </c>
       <c r="E91" s="6">
-        <v>2529.5</v>
+        <v>-4208.5</v>
       </c>
       <c r="F91" s="6">
-        <v>7643</v>
+        <v>-4004.5</v>
       </c>
       <c r="G91" s="6">
-        <v>6009</v>
+        <v>-3301.5</v>
       </c>
       <c r="H91" s="6">
-        <v>-2074.5</v>
+        <v>-7388</v>
       </c>
       <c r="I91" s="7">
-        <v>2594.5</v>
+        <v>290.5</v>
       </c>
       <c r="J91"/>
       <c r="K91" s="5" t="s">
@@ -5110,25 +5112,25 @@
         <v>1208</v>
       </c>
       <c r="M91" s="6">
-        <v>7241.5</v>
+        <v>18425</v>
       </c>
       <c r="N91" s="6">
-        <v>-686</v>
+        <v>-572.5</v>
       </c>
       <c r="O91" s="6">
-        <v>4780</v>
+        <v>-4696.5</v>
       </c>
       <c r="P91" s="6">
-        <v>8010</v>
+        <v>-430</v>
       </c>
       <c r="Q91" s="6">
-        <v>1702</v>
+        <v>658</v>
       </c>
       <c r="R91" s="6">
-        <v>-12136</v>
+        <v>1157</v>
       </c>
       <c r="S91" s="7">
-        <v>-1941</v>
+        <v>2084</v>
       </c>
       <c r="T91" s="1"/>
     </row>
@@ -5138,25 +5140,25 @@
         <v>13</v>
       </c>
       <c r="C92" s="9">
-        <v>0.67500000000000004</v>
+        <v>0.03</v>
       </c>
       <c r="D92" s="10">
-        <v>-0.14000000000000001</v>
+        <v>-0.23</v>
       </c>
       <c r="E92" s="10">
-        <v>0.16</v>
+        <v>-0.29499999999999998</v>
       </c>
       <c r="F92" s="10">
-        <v>0.22999999999999998</v>
+        <v>-0.22499999999999998</v>
       </c>
       <c r="G92" s="10">
-        <v>0.11499999999999999</v>
+        <v>-0.17</v>
       </c>
       <c r="H92" s="10">
-        <v>-0.02</v>
+        <v>-0.26500000000000001</v>
       </c>
       <c r="I92" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.02</v>
       </c>
       <c r="J92"/>
       <c r="K92" s="8" t="s">
@@ -5166,25 +5168,25 @@
         <v>0.1</v>
       </c>
       <c r="M92" s="9">
-        <v>0.27500000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="N92" s="10">
-        <v>-0.06</v>
+        <v>-6.5000000000000002E-2</v>
       </c>
       <c r="O92" s="10">
-        <v>0.23499999999999999</v>
+        <v>-0.45500000000000002</v>
       </c>
       <c r="P92" s="10">
-        <v>0.36499999999999999</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="Q92" s="10">
-        <v>0.09</v>
+        <v>8.4999999999999992E-2</v>
       </c>
       <c r="R92" s="10">
-        <v>-0.17499999999999999</v>
+        <v>5.5E-2</v>
       </c>
       <c r="S92" s="11">
-        <v>-5.5000000000000007E-2</v>
+        <v>5.5000000000000007E-2</v>
       </c>
       <c r="T92" s="1"/>
     </row>
@@ -5194,25 +5196,25 @@
         <v>14</v>
       </c>
       <c r="C93" s="12">
-        <v>73</v>
+        <v>58.5</v>
       </c>
       <c r="D93" s="2">
+        <v>54.5</v>
+      </c>
+      <c r="E93" s="2">
+        <v>54</v>
+      </c>
+      <c r="F93" s="2">
+        <v>56</v>
+      </c>
+      <c r="G93" s="2">
+        <v>56</v>
+      </c>
+      <c r="H93" s="2">
+        <v>55</v>
+      </c>
+      <c r="I93" s="13">
         <v>57</v>
-      </c>
-      <c r="E93" s="2">
-        <v>66</v>
-      </c>
-      <c r="F93" s="2">
-        <v>67</v>
-      </c>
-      <c r="G93" s="2">
-        <v>62</v>
-      </c>
-      <c r="H93" s="2">
-        <v>65.5</v>
-      </c>
-      <c r="I93" s="13">
-        <v>71</v>
       </c>
       <c r="J93"/>
       <c r="K93" s="8" t="s">
@@ -5222,25 +5224,25 @@
         <v>58</v>
       </c>
       <c r="M93" s="12">
-        <v>66.5</v>
+        <v>79</v>
       </c>
       <c r="N93" s="2">
+        <v>56</v>
+      </c>
+      <c r="O93" s="2">
         <v>52</v>
       </c>
-      <c r="O93" s="2">
-        <v>60</v>
-      </c>
       <c r="P93" s="2">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="Q93" s="2">
+        <v>58</v>
+      </c>
+      <c r="R93" s="2">
+        <v>68</v>
+      </c>
+      <c r="S93" s="13">
         <v>62</v>
-      </c>
-      <c r="R93" s="2">
-        <v>57.5</v>
-      </c>
-      <c r="S93" s="13">
-        <v>68</v>
       </c>
       <c r="T93" s="1"/>
     </row>
@@ -5250,25 +5252,25 @@
         <v>15</v>
       </c>
       <c r="C94" s="15">
-        <v>-133327.5</v>
+        <v>-171299</v>
       </c>
       <c r="D94" s="15">
-        <v>-260749</v>
+        <v>-294199.5</v>
       </c>
       <c r="E94" s="15">
-        <v>-245119</v>
+        <v>-271977.5</v>
       </c>
       <c r="F94" s="15">
-        <v>-255296.5</v>
+        <v>-278996</v>
       </c>
       <c r="G94" s="15">
-        <v>-329136</v>
+        <v>-294773</v>
       </c>
       <c r="H94" s="15">
-        <v>-335143.5</v>
+        <v>-294269</v>
       </c>
       <c r="I94" s="16">
-        <v>-325302.5</v>
+        <v>-166552.5</v>
       </c>
       <c r="J94"/>
       <c r="K94" s="14" t="s">
@@ -5278,25 +5280,25 @@
         <v>-168014.5</v>
       </c>
       <c r="M94" s="15">
-        <v>-189153</v>
+        <v>-189063.5</v>
       </c>
       <c r="N94" s="15">
-        <v>-241979</v>
+        <v>-229910.5</v>
       </c>
       <c r="O94" s="15">
-        <v>-233627</v>
+        <v>-367060.5</v>
       </c>
       <c r="P94" s="15">
-        <v>-235339.5</v>
+        <v>-290829.5</v>
       </c>
       <c r="Q94" s="15">
-        <v>-313097.5</v>
+        <v>-216632.5</v>
       </c>
       <c r="R94" s="15">
-        <v>-412759.5</v>
+        <v>-311656</v>
       </c>
       <c r="S94" s="16">
-        <v>-275626</v>
+        <v>-275106</v>
       </c>
       <c r="T94" s="1"/>
     </row>
@@ -5325,7 +5327,7 @@
     <row r="96" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>3</v>
@@ -5350,7 +5352,7 @@
       </c>
       <c r="J96"/>
       <c r="K96" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L96" s="4" t="s">
         <v>3</v>
@@ -5384,25 +5386,25 @@
         <v>11</v>
       </c>
       <c r="C97" s="6">
-        <v>504372</v>
+        <v>271010.5</v>
       </c>
       <c r="D97" s="6">
-        <v>341725</v>
+        <v>-93638</v>
       </c>
       <c r="E97" s="6">
-        <v>491077.5</v>
+        <v>106840</v>
       </c>
       <c r="F97" s="6">
-        <v>367717</v>
+        <v>123837</v>
       </c>
       <c r="G97" s="6">
-        <v>64013.5</v>
+        <v>77708</v>
       </c>
       <c r="H97" s="6">
-        <v>74656</v>
+        <v>-21203</v>
       </c>
       <c r="I97" s="7">
-        <v>94699</v>
+        <v>51313.5</v>
       </c>
       <c r="J97"/>
       <c r="K97" s="5" t="s">
@@ -5412,25 +5414,25 @@
         <v>50160</v>
       </c>
       <c r="M97" s="6">
-        <v>553229</v>
+        <v>147986.5</v>
       </c>
       <c r="N97" s="6">
-        <v>637246</v>
+        <v>-39581.5</v>
       </c>
       <c r="O97" s="6">
-        <v>576884.5</v>
+        <v>164022</v>
       </c>
       <c r="P97" s="6">
-        <v>297185</v>
+        <v>205721.5</v>
       </c>
       <c r="Q97" s="6">
-        <v>139994</v>
+        <v>65313</v>
       </c>
       <c r="R97" s="6">
-        <v>82379.5</v>
+        <v>-138035</v>
       </c>
       <c r="S97" s="7">
-        <v>120557.5</v>
+        <v>-37201.5</v>
       </c>
       <c r="T97" s="1"/>
     </row>
@@ -5440,25 +5442,25 @@
         <v>12</v>
       </c>
       <c r="C98" s="6">
-        <v>25322</v>
+        <v>12757.5</v>
       </c>
       <c r="D98" s="6">
-        <v>9445</v>
+        <v>-1367</v>
       </c>
       <c r="E98" s="6">
-        <v>19327.5</v>
+        <v>2529.5</v>
       </c>
       <c r="F98" s="6">
-        <v>16108.5</v>
+        <v>7643</v>
       </c>
       <c r="G98" s="6">
-        <v>5633.5</v>
+        <v>6009</v>
       </c>
       <c r="H98" s="6">
-        <v>8882</v>
+        <v>-2074.5</v>
       </c>
       <c r="I98" s="7">
-        <v>4931</v>
+        <v>2594.5</v>
       </c>
       <c r="J98"/>
       <c r="K98" s="5" t="s">
@@ -5468,25 +5470,25 @@
         <v>1208</v>
       </c>
       <c r="M98" s="6">
-        <v>18241.5</v>
+        <v>7241.5</v>
       </c>
       <c r="N98" s="6">
-        <v>11917</v>
+        <v>-686</v>
       </c>
       <c r="O98" s="6">
-        <v>15424.5</v>
+        <v>4780</v>
       </c>
       <c r="P98" s="6">
-        <v>12321</v>
+        <v>8010</v>
       </c>
       <c r="Q98" s="6">
-        <v>9375</v>
+        <v>1702</v>
       </c>
       <c r="R98" s="6">
-        <v>7832</v>
+        <v>-12136</v>
       </c>
       <c r="S98" s="7">
-        <v>10722</v>
+        <v>-1941</v>
       </c>
       <c r="T98" s="1"/>
     </row>
@@ -5496,25 +5498,25 @@
         <v>13</v>
       </c>
       <c r="C99" s="9">
-        <v>1.0350000000000001</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="D99" s="10">
-        <v>0.79</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E99" s="10">
-        <v>1.2250000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="F99" s="10">
-        <v>0.7</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="G99" s="10">
-        <v>0.26500000000000001</v>
+        <v>0.11499999999999999</v>
       </c>
       <c r="H99" s="10">
-        <v>0.315</v>
+        <v>-0.02</v>
       </c>
       <c r="I99" s="11">
-        <v>0.16500000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J99"/>
       <c r="K99" s="8" t="s">
@@ -5524,25 +5526,25 @@
         <v>0.1</v>
       </c>
       <c r="M99" s="9">
-        <v>0.875</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="N99" s="10">
-        <v>1.1349999999999998</v>
+        <v>-0.06</v>
       </c>
       <c r="O99" s="10">
-        <v>1.02</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="P99" s="10">
-        <v>0.66</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="Q99" s="10">
-        <v>0.4</v>
+        <v>0.09</v>
       </c>
       <c r="R99" s="10">
-        <v>0.40500000000000003</v>
+        <v>-0.17499999999999999</v>
       </c>
       <c r="S99" s="11">
-        <v>0.45</v>
+        <v>-5.5000000000000007E-2</v>
       </c>
       <c r="T99" s="1"/>
     </row>
@@ -5552,25 +5554,25 @@
         <v>14</v>
       </c>
       <c r="C100" s="12">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D100" s="2">
+        <v>57</v>
+      </c>
+      <c r="E100" s="2">
         <v>66</v>
       </c>
-      <c r="E100" s="2">
-        <v>76.5</v>
-      </c>
       <c r="F100" s="2">
-        <v>67.5</v>
+        <v>67</v>
       </c>
       <c r="G100" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H100" s="2">
-        <v>67</v>
+        <v>65.5</v>
       </c>
       <c r="I100" s="13">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J100"/>
       <c r="K100" s="8" t="s">
@@ -5580,25 +5582,25 @@
         <v>58</v>
       </c>
       <c r="M100" s="12">
-        <v>75</v>
+        <v>66.5</v>
       </c>
       <c r="N100" s="2">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O100" s="2">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="P100" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q100" s="2">
         <v>62</v>
       </c>
       <c r="R100" s="2">
-        <v>61</v>
+        <v>57.5</v>
       </c>
       <c r="S100" s="13">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="T100" s="1"/>
     </row>
@@ -5608,25 +5610,25 @@
         <v>15</v>
       </c>
       <c r="C101" s="15">
-        <v>-55827.5</v>
+        <v>-133327.5</v>
       </c>
       <c r="D101" s="15">
-        <v>-158238</v>
+        <v>-260749</v>
       </c>
       <c r="E101" s="15">
-        <v>-89293</v>
+        <v>-245119</v>
       </c>
       <c r="F101" s="15">
-        <v>-114931.5</v>
+        <v>-255296.5</v>
       </c>
       <c r="G101" s="15">
-        <v>-176001.5</v>
+        <v>-329136</v>
       </c>
       <c r="H101" s="15">
-        <v>-154660</v>
+        <v>-335143.5</v>
       </c>
       <c r="I101" s="16">
-        <v>-171060</v>
+        <v>-325302.5</v>
       </c>
       <c r="J101"/>
       <c r="K101" s="14" t="s">
@@ -5636,25 +5638,25 @@
         <v>-168014.5</v>
       </c>
       <c r="M101" s="15">
-        <v>-111762.5</v>
+        <v>-189153</v>
       </c>
       <c r="N101" s="15">
-        <v>-159856.5</v>
+        <v>-241979</v>
       </c>
       <c r="O101" s="15">
-        <v>-98286</v>
+        <v>-233627</v>
       </c>
       <c r="P101" s="15">
-        <v>-132624.5</v>
+        <v>-235339.5</v>
       </c>
       <c r="Q101" s="15">
-        <v>-122357</v>
+        <v>-313097.5</v>
       </c>
       <c r="R101" s="15">
-        <v>-102227.5</v>
+        <v>-412759.5</v>
       </c>
       <c r="S101" s="16">
-        <v>-89313</v>
+        <v>-275626</v>
       </c>
       <c r="T101" s="1"/>
     </row>
@@ -5683,7 +5685,7 @@
     <row r="103" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>3</v>
@@ -5708,7 +5710,7 @@
       </c>
       <c r="J103"/>
       <c r="K103" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="L103" s="4" t="s">
         <v>3</v>
@@ -5742,25 +5744,25 @@
         <v>11</v>
       </c>
       <c r="C104" s="6">
-        <v>12654</v>
+        <v>-59941.5</v>
       </c>
       <c r="D104" s="6">
-        <v>-136433.5</v>
+        <v>-168552</v>
       </c>
       <c r="E104" s="6">
-        <v>-115198</v>
+        <v>-106899.5</v>
       </c>
       <c r="F104" s="6">
         <v>-116793.5</v>
       </c>
       <c r="G104" s="6">
-        <v>-112962</v>
+        <v>-259835</v>
       </c>
       <c r="H104" s="6">
-        <v>-155743</v>
+        <v>-315822.5</v>
       </c>
       <c r="I104" s="7">
-        <v>9352.5</v>
+        <v>44857</v>
       </c>
       <c r="J104"/>
       <c r="K104" s="5" t="s">
@@ -5770,25 +5772,25 @@
         <v>50160</v>
       </c>
       <c r="M104" s="6">
-        <v>203348</v>
+        <v>-139919</v>
       </c>
       <c r="N104" s="6">
-        <v>-41240.5</v>
+        <v>107101</v>
       </c>
       <c r="O104" s="6">
-        <v>-232779.5</v>
+        <v>-11926</v>
       </c>
       <c r="P104" s="6">
-        <v>-15573.5</v>
+        <v>-54891</v>
       </c>
       <c r="Q104" s="6">
-        <v>36371.5</v>
+        <v>-152126</v>
       </c>
       <c r="R104" s="6">
-        <v>28404.5</v>
+        <v>-121238.5</v>
       </c>
       <c r="S104" s="7">
-        <v>26182</v>
+        <v>-27989.5</v>
       </c>
       <c r="T104" s="1"/>
     </row>
@@ -5798,25 +5800,25 @@
         <v>12</v>
       </c>
       <c r="C105" s="6">
-        <v>389.5</v>
+        <v>-1552</v>
       </c>
       <c r="D105" s="6">
-        <v>-1778.5</v>
+        <v>-2427.5</v>
       </c>
       <c r="E105" s="6">
-        <v>-4208.5</v>
+        <v>-4007</v>
       </c>
       <c r="F105" s="6">
         <v>-4004.5</v>
       </c>
       <c r="G105" s="6">
-        <v>-3301.5</v>
+        <v>-5559.5</v>
       </c>
       <c r="H105" s="6">
-        <v>-7388</v>
+        <v>-7685.5</v>
       </c>
       <c r="I105" s="7">
-        <v>290.5</v>
+        <v>2049</v>
       </c>
       <c r="J105"/>
       <c r="K105" s="5" t="s">
@@ -5826,25 +5828,25 @@
         <v>1208</v>
       </c>
       <c r="M105" s="6">
-        <v>18425</v>
+        <v>-5361</v>
       </c>
       <c r="N105" s="6">
-        <v>-572.5</v>
+        <v>1351.5</v>
       </c>
       <c r="O105" s="6">
-        <v>-4696.5</v>
+        <v>-330</v>
       </c>
       <c r="P105" s="6">
-        <v>-430</v>
+        <v>-767.5</v>
       </c>
       <c r="Q105" s="6">
-        <v>658</v>
+        <v>-3186.5</v>
       </c>
       <c r="R105" s="6">
-        <v>1157</v>
+        <v>-1591.5</v>
       </c>
       <c r="S105" s="7">
-        <v>2084</v>
+        <v>-1211</v>
       </c>
       <c r="T105" s="1"/>
     </row>
@@ -5854,25 +5856,25 @@
         <v>13</v>
       </c>
       <c r="C106" s="9">
-        <v>0.03</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="D106" s="10">
-        <v>-0.23</v>
+        <v>-0.35499999999999998</v>
       </c>
       <c r="E106" s="10">
-        <v>-0.29499999999999998</v>
+        <v>-0.32</v>
       </c>
       <c r="F106" s="10">
         <v>-0.22499999999999998</v>
       </c>
       <c r="G106" s="10">
-        <v>-0.17</v>
+        <v>-0.33</v>
       </c>
       <c r="H106" s="10">
-        <v>-0.26500000000000001</v>
+        <v>-0.43</v>
       </c>
       <c r="I106" s="11">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="J106"/>
       <c r="K106" s="8" t="s">
@@ -5882,25 +5884,25 @@
         <v>0.1</v>
       </c>
       <c r="M106" s="9">
-        <v>0.52</v>
+        <v>-0.185</v>
       </c>
       <c r="N106" s="10">
-        <v>-6.5000000000000002E-2</v>
+        <v>0.21</v>
       </c>
       <c r="O106" s="10">
-        <v>-0.45500000000000002</v>
+        <v>-0.02</v>
       </c>
       <c r="P106" s="10">
-        <v>-1.4999999999999999E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="Q106" s="10">
-        <v>8.4999999999999992E-2</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="R106" s="10">
-        <v>5.5E-2</v>
+        <v>-0.16</v>
       </c>
       <c r="S106" s="11">
-        <v>5.5000000000000007E-2</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="T106" s="1"/>
     </row>
@@ -5910,25 +5912,25 @@
         <v>14</v>
       </c>
       <c r="C107" s="12">
-        <v>58.5</v>
+        <v>55</v>
       </c>
       <c r="D107" s="2">
-        <v>54.5</v>
+        <v>52.5</v>
       </c>
       <c r="E107" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F107" s="2">
         <v>56</v>
       </c>
       <c r="G107" s="2">
-        <v>56</v>
+        <v>46.5</v>
       </c>
       <c r="H107" s="2">
         <v>55</v>
       </c>
       <c r="I107" s="13">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J107"/>
       <c r="K107" s="8" t="s">
@@ -5938,25 +5940,25 @@
         <v>58</v>
       </c>
       <c r="M107" s="12">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="N107" s="2">
+        <v>55</v>
+      </c>
+      <c r="O107" s="2">
+        <v>57</v>
+      </c>
+      <c r="P107" s="2">
+        <v>54</v>
+      </c>
+      <c r="Q107" s="2">
+        <v>50</v>
+      </c>
+      <c r="R107" s="2">
+        <v>57.5</v>
+      </c>
+      <c r="S107" s="13">
         <v>56</v>
-      </c>
-      <c r="O107" s="2">
-        <v>52</v>
-      </c>
-      <c r="P107" s="2">
-        <v>55</v>
-      </c>
-      <c r="Q107" s="2">
-        <v>58</v>
-      </c>
-      <c r="R107" s="2">
-        <v>68</v>
-      </c>
-      <c r="S107" s="13">
-        <v>62</v>
       </c>
       <c r="T107" s="1"/>
     </row>
@@ -5966,25 +5968,25 @@
         <v>15</v>
       </c>
       <c r="C108" s="15">
-        <v>-171299</v>
+        <v>-185617.5</v>
       </c>
       <c r="D108" s="15">
-        <v>-294199.5</v>
+        <v>-324998.5</v>
       </c>
       <c r="E108" s="15">
-        <v>-271977.5</v>
+        <v>-277637.5</v>
       </c>
       <c r="F108" s="15">
-        <v>-278996</v>
+        <v>-303379.5</v>
       </c>
       <c r="G108" s="15">
-        <v>-294773</v>
+        <v>-387997</v>
       </c>
       <c r="H108" s="15">
-        <v>-294269</v>
+        <v>-426269.5</v>
       </c>
       <c r="I108" s="16">
-        <v>-166552.5</v>
+        <v>-191921</v>
       </c>
       <c r="J108"/>
       <c r="K108" s="14" t="s">
@@ -5994,37 +5996,54 @@
         <v>-168014.5</v>
       </c>
       <c r="M108" s="15">
-        <v>-189063.5</v>
+        <v>-378536</v>
       </c>
       <c r="N108" s="15">
-        <v>-229910.5</v>
+        <v>-219283.5</v>
       </c>
       <c r="O108" s="15">
-        <v>-367060.5</v>
+        <v>-286477</v>
       </c>
       <c r="P108" s="15">
-        <v>-290829.5</v>
+        <v>-265091.5</v>
       </c>
       <c r="Q108" s="15">
-        <v>-216632.5</v>
+        <v>-316289</v>
       </c>
       <c r="R108" s="15">
-        <v>-311656</v>
+        <v>-414193.5</v>
       </c>
       <c r="S108" s="16">
-        <v>-275106</v>
+        <v>-257748</v>
       </c>
       <c r="T108" s="1"/>
     </row>
     <row r="109" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
       <c r="J109"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
+      <c r="O109" s="6"/>
+      <c r="P109" s="6"/>
+      <c r="Q109" s="6"/>
+      <c r="R109" s="6"/>
+      <c r="S109" s="6"/>
       <c r="T109" s="1"/>
     </row>
     <row r="110" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>3</v>
@@ -6049,7 +6068,7 @@
       </c>
       <c r="J110"/>
       <c r="K110" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L110" s="4" t="s">
         <v>3</v>
@@ -6083,53 +6102,53 @@
         <v>11</v>
       </c>
       <c r="C111" s="6">
-        <v>-59941.5</v>
+        <v>-60663</v>
       </c>
       <c r="D111" s="6">
-        <v>-168552</v>
+        <v>28947.5</v>
       </c>
       <c r="E111" s="6">
-        <v>-106899.5</v>
+        <v>-180426</v>
       </c>
       <c r="F111" s="6">
-        <v>-116793.5</v>
+        <v>-90184.5</v>
       </c>
       <c r="G111" s="6">
-        <v>-259835</v>
+        <v>350070.5</v>
       </c>
       <c r="H111" s="6">
-        <v>-315822.5</v>
+        <v>175555</v>
       </c>
       <c r="I111" s="7">
-        <v>44857</v>
+        <v>477489</v>
       </c>
       <c r="J111"/>
       <c r="K111" s="5" t="s">
         <v>11</v>
       </c>
       <c r="L111" s="6">
-        <v>50160</v>
+        <v>273716</v>
       </c>
       <c r="M111" s="6">
-        <v>-139919</v>
+        <v>515410</v>
       </c>
       <c r="N111" s="6">
-        <v>107101</v>
+        <v>233553.5</v>
       </c>
       <c r="O111" s="6">
-        <v>-11926</v>
+        <v>-7826</v>
       </c>
       <c r="P111" s="6">
-        <v>-54891</v>
+        <v>40009.5</v>
       </c>
       <c r="Q111" s="6">
-        <v>-152126</v>
+        <v>423534</v>
       </c>
       <c r="R111" s="6">
-        <v>-121238.5</v>
+        <v>128769</v>
       </c>
       <c r="S111" s="7">
-        <v>-27989.5</v>
+        <v>525845</v>
       </c>
       <c r="T111" s="1"/>
     </row>
@@ -6139,53 +6158,53 @@
         <v>12</v>
       </c>
       <c r="C112" s="6">
-        <v>-1552</v>
+        <v>-1993</v>
       </c>
       <c r="D112" s="6">
-        <v>-2427.5</v>
+        <v>757.5</v>
       </c>
       <c r="E112" s="6">
-        <v>-4007</v>
+        <v>-7358.5</v>
       </c>
       <c r="F112" s="6">
-        <v>-4004.5</v>
+        <v>-3206</v>
       </c>
       <c r="G112" s="6">
-        <v>-5559.5</v>
+        <v>25755.5</v>
       </c>
       <c r="H112" s="6">
-        <v>-7685.5</v>
+        <v>12752</v>
       </c>
       <c r="I112" s="7">
-        <v>2049</v>
+        <v>71163.5</v>
       </c>
       <c r="J112"/>
       <c r="K112" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L112" s="6">
-        <v>1208</v>
+        <v>7264.5</v>
       </c>
       <c r="M112" s="6">
-        <v>-5361</v>
+        <v>63090.5</v>
       </c>
       <c r="N112" s="6">
-        <v>1351.5</v>
+        <v>3614</v>
       </c>
       <c r="O112" s="6">
-        <v>-330</v>
+        <v>-99</v>
       </c>
       <c r="P112" s="6">
-        <v>-767.5</v>
+        <v>852</v>
       </c>
       <c r="Q112" s="6">
-        <v>-3186.5</v>
+        <v>24774</v>
       </c>
       <c r="R112" s="6">
-        <v>-1591.5</v>
+        <v>12108.5</v>
       </c>
       <c r="S112" s="7">
-        <v>-1211</v>
+        <v>59125.5</v>
       </c>
       <c r="T112" s="1"/>
     </row>
@@ -6195,53 +6214,53 @@
         <v>13</v>
       </c>
       <c r="C113" s="9">
-        <v>-0.14000000000000001</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="D113" s="10">
-        <v>-0.35499999999999998</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="E113" s="10">
-        <v>-0.32</v>
+        <v>-0.32999999999999996</v>
       </c>
       <c r="F113" s="10">
-        <v>-0.22499999999999998</v>
+        <v>-0.11</v>
       </c>
       <c r="G113" s="10">
-        <v>-0.33</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="H113" s="10">
-        <v>-0.43</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="I113" s="11">
-        <v>0.11</v>
+        <v>0.94</v>
       </c>
       <c r="J113"/>
       <c r="K113" s="8" t="s">
         <v>13</v>
       </c>
       <c r="L113" s="9">
-        <v>0.1</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="M113" s="9">
-        <v>-0.185</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="N113" s="10">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
       <c r="O113" s="10">
-        <v>-0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P113" s="10">
-        <v>-0.125</v>
+        <v>0.08</v>
       </c>
       <c r="Q113" s="10">
-        <v>-0.22500000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="R113" s="10">
-        <v>-0.16</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="S113" s="11">
-        <v>-7.0000000000000007E-2</v>
+        <v>0.96</v>
       </c>
       <c r="T113" s="1"/>
     </row>
@@ -6251,53 +6270,53 @@
         <v>14</v>
       </c>
       <c r="C114" s="12">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D114" s="2">
-        <v>52.5</v>
+        <v>56</v>
       </c>
       <c r="E114" s="2">
-        <v>53</v>
+        <v>54.5</v>
       </c>
       <c r="F114" s="2">
+        <v>54</v>
+      </c>
+      <c r="G114" s="2">
+        <v>69</v>
+      </c>
+      <c r="H114" s="2">
         <v>56</v>
       </c>
-      <c r="G114" s="2">
-        <v>46.5</v>
-      </c>
-      <c r="H114" s="2">
-        <v>55</v>
-      </c>
       <c r="I114" s="13">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="J114"/>
       <c r="K114" s="8" t="s">
         <v>14</v>
       </c>
       <c r="L114" s="12">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="M114" s="12">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="N114" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O114" s="2">
+        <v>56.5</v>
+      </c>
+      <c r="P114" s="2">
         <v>57</v>
       </c>
-      <c r="P114" s="2">
-        <v>54</v>
-      </c>
       <c r="Q114" s="2">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="R114" s="2">
-        <v>57.5</v>
+        <v>60</v>
       </c>
       <c r="S114" s="13">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="T114" s="1"/>
     </row>
@@ -6307,65 +6326,64 @@
         <v>15</v>
       </c>
       <c r="C115" s="15">
-        <v>-185617.5</v>
+        <v>-356002.5</v>
       </c>
       <c r="D115" s="15">
-        <v>-324998.5</v>
+        <v>-283872</v>
       </c>
       <c r="E115" s="15">
-        <v>-277637.5</v>
+        <v>-438062.5</v>
       </c>
       <c r="F115" s="15">
-        <v>-303379.5</v>
+        <v>-413758</v>
       </c>
       <c r="G115" s="15">
-        <v>-387997</v>
+        <v>-146237.5</v>
       </c>
       <c r="H115" s="15">
-        <v>-426269.5</v>
+        <v>-167915.5</v>
       </c>
       <c r="I115" s="16">
-        <v>-191921</v>
+        <v>-88138</v>
       </c>
       <c r="J115"/>
       <c r="K115" s="14" t="s">
         <v>15</v>
       </c>
       <c r="L115" s="15">
-        <v>-168014.5</v>
+        <v>-119230</v>
       </c>
       <c r="M115" s="15">
-        <v>-378536</v>
+        <v>-69083.5</v>
       </c>
       <c r="N115" s="15">
-        <v>-219283.5</v>
+        <v>-346348.5</v>
       </c>
       <c r="O115" s="15">
-        <v>-286477</v>
+        <v>-379941</v>
       </c>
       <c r="P115" s="15">
-        <v>-265091.5</v>
+        <v>-456750</v>
       </c>
       <c r="Q115" s="15">
-        <v>-316289</v>
+        <v>-164215</v>
       </c>
       <c r="R115" s="15">
-        <v>-414193.5</v>
+        <v>-247744.5</v>
       </c>
       <c r="S115" s="16">
-        <v>-257748</v>
+        <v>-58443</v>
       </c>
       <c r="T115" s="1"/>
     </row>
     <row r="116" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
-      <c r="J116"/>
       <c r="T116" s="1"/>
     </row>
     <row r="117" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>3</v>
@@ -6390,7 +6408,7 @@
       </c>
       <c r="J117"/>
       <c r="K117" s="3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="L117" s="4" t="s">
         <v>3</v>
@@ -6424,25 +6442,25 @@
         <v>11</v>
       </c>
       <c r="C118" s="6">
-        <v>-60663</v>
+        <v>204507.5</v>
       </c>
       <c r="D118" s="6">
-        <v>28947.5</v>
+        <v>169877</v>
       </c>
       <c r="E118" s="6">
-        <v>-180426</v>
+        <v>217847</v>
       </c>
       <c r="F118" s="6">
-        <v>-90184.5</v>
+        <v>14737</v>
       </c>
       <c r="G118" s="6">
-        <v>350070.5</v>
+        <v>-48559</v>
       </c>
       <c r="H118" s="6">
-        <v>175555</v>
+        <v>-39246</v>
       </c>
       <c r="I118" s="7">
-        <v>477489</v>
+        <v>-57723</v>
       </c>
       <c r="J118"/>
       <c r="K118" s="5" t="s">
@@ -6452,25 +6470,25 @@
         <v>273716</v>
       </c>
       <c r="M118" s="6">
-        <v>515410</v>
+        <v>127208</v>
       </c>
       <c r="N118" s="6">
-        <v>233553.5</v>
+        <v>355709.5</v>
       </c>
       <c r="O118" s="6">
-        <v>-7826</v>
+        <v>167088</v>
       </c>
       <c r="P118" s="6">
-        <v>40009.5</v>
+        <v>128874.5</v>
       </c>
       <c r="Q118" s="6">
-        <v>423534</v>
+        <v>61804</v>
       </c>
       <c r="R118" s="6">
-        <v>128769</v>
+        <v>83695</v>
       </c>
       <c r="S118" s="7">
-        <v>525845</v>
+        <v>121593</v>
       </c>
       <c r="T118" s="1"/>
     </row>
@@ -6480,25 +6498,25 @@
         <v>12</v>
       </c>
       <c r="C119" s="6">
-        <v>-1993</v>
+        <v>7729</v>
       </c>
       <c r="D119" s="6">
-        <v>757.5</v>
+        <v>1095</v>
       </c>
       <c r="E119" s="6">
-        <v>-7358.5</v>
+        <v>5442.5</v>
       </c>
       <c r="F119" s="6">
-        <v>-3206</v>
+        <v>414</v>
       </c>
       <c r="G119" s="6">
-        <v>25755.5</v>
+        <v>-1848</v>
       </c>
       <c r="H119" s="6">
-        <v>12752</v>
+        <v>-3488.5</v>
       </c>
       <c r="I119" s="7">
-        <v>71163.5</v>
+        <v>-3474</v>
       </c>
       <c r="J119"/>
       <c r="K119" s="5" t="s">
@@ -6508,25 +6526,25 @@
         <v>7264.5</v>
       </c>
       <c r="M119" s="6">
-        <v>63090.5</v>
+        <v>12680</v>
       </c>
       <c r="N119" s="6">
-        <v>3614</v>
+        <v>3765</v>
       </c>
       <c r="O119" s="6">
-        <v>-99</v>
+        <v>3662.5</v>
       </c>
       <c r="P119" s="6">
-        <v>852</v>
+        <v>3765</v>
       </c>
       <c r="Q119" s="6">
-        <v>24774</v>
+        <v>2350.5</v>
       </c>
       <c r="R119" s="6">
-        <v>12108.5</v>
+        <v>4918.5</v>
       </c>
       <c r="S119" s="7">
-        <v>59125.5</v>
+        <v>10194.5</v>
       </c>
       <c r="T119" s="1"/>
     </row>
@@ -6536,25 +6554,25 @@
         <v>13</v>
       </c>
       <c r="C120" s="9">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="D120" s="10">
+        <v>0.32</v>
+      </c>
+      <c r="E120" s="10">
+        <v>0.505</v>
+      </c>
+      <c r="F120" s="10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G120" s="10">
+        <v>-0.09</v>
+      </c>
+      <c r="H120" s="10">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="D120" s="10">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="E120" s="10">
-        <v>-0.32999999999999996</v>
-      </c>
-      <c r="F120" s="10">
-        <v>-0.11</v>
-      </c>
-      <c r="G120" s="10">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="H120" s="10">
-        <v>0.34499999999999997</v>
-      </c>
       <c r="I120" s="11">
-        <v>0.94</v>
+        <v>-0.16499999999999998</v>
       </c>
       <c r="J120"/>
       <c r="K120" s="8" t="s">
@@ -6564,25 +6582,25 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="M120" s="9">
-        <v>0.85499999999999998</v>
+        <v>0.38</v>
       </c>
       <c r="N120" s="10">
-        <v>0.31</v>
+        <v>0.62</v>
       </c>
       <c r="O120" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0.33</v>
       </c>
       <c r="P120" s="10">
-        <v>0.08</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="Q120" s="10">
-        <v>0.62</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="R120" s="10">
-        <v>0.22999999999999998</v>
+        <v>0.18</v>
       </c>
       <c r="S120" s="11">
-        <v>0.96</v>
+        <v>0.47</v>
       </c>
       <c r="T120" s="1"/>
     </row>
@@ -6592,25 +6610,25 @@
         <v>14</v>
       </c>
       <c r="C121" s="12">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D121" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="E121" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="F121" s="2">
+        <v>59.5</v>
+      </c>
+      <c r="G121" s="2">
         <v>56</v>
       </c>
-      <c r="E121" s="2">
-        <v>54.5</v>
-      </c>
-      <c r="F121" s="2">
-        <v>54</v>
-      </c>
-      <c r="G121" s="2">
-        <v>69</v>
-      </c>
       <c r="H121" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I121" s="13">
-        <v>85</v>
+        <v>44.5</v>
       </c>
       <c r="J121"/>
       <c r="K121" s="8" t="s">
@@ -6620,25 +6638,25 @@
         <v>67</v>
       </c>
       <c r="M121" s="12">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="N121" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="O121" s="2">
-        <v>56.5</v>
+        <v>62</v>
       </c>
       <c r="P121" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q121" s="2">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="R121" s="2">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S121" s="13">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="T121" s="1"/>
     </row>
@@ -6648,25 +6666,25 @@
         <v>15</v>
       </c>
       <c r="C122" s="15">
-        <v>-356002.5</v>
+        <v>-96493.5</v>
       </c>
       <c r="D122" s="15">
-        <v>-283872</v>
+        <v>-220148.5</v>
       </c>
       <c r="E122" s="15">
-        <v>-438062.5</v>
+        <v>-110463</v>
       </c>
       <c r="F122" s="15">
-        <v>-413758</v>
+        <v>-183126.5</v>
       </c>
       <c r="G122" s="15">
-        <v>-146237.5</v>
+        <v>-170898</v>
       </c>
       <c r="H122" s="15">
-        <v>-167915.5</v>
+        <v>-217874.5</v>
       </c>
       <c r="I122" s="16">
-        <v>-88138</v>
+        <v>-164917.5</v>
       </c>
       <c r="J122"/>
       <c r="K122" s="14" t="s">
@@ -6676,37 +6694,36 @@
         <v>-119230</v>
       </c>
       <c r="M122" s="15">
-        <v>-69083.5</v>
+        <v>-111844.5</v>
       </c>
       <c r="N122" s="15">
-        <v>-346348.5</v>
+        <v>-167323.5</v>
       </c>
       <c r="O122" s="15">
-        <v>-379941</v>
+        <v>-140888.5</v>
       </c>
       <c r="P122" s="15">
-        <v>-456750</v>
+        <v>-186900.5</v>
       </c>
       <c r="Q122" s="15">
-        <v>-164215</v>
+        <v>-138795.5</v>
       </c>
       <c r="R122" s="15">
-        <v>-247744.5</v>
+        <v>-283643</v>
       </c>
       <c r="S122" s="16">
-        <v>-58443</v>
+        <v>-127539.5</v>
       </c>
       <c r="T122" s="1"/>
     </row>
     <row r="123" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
-      <c r="J123"/>
       <c r="T123" s="1"/>
     </row>
     <row r="124" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="3" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>3</v>
@@ -6731,13 +6748,13 @@
       </c>
       <c r="J124"/>
       <c r="K124" s="3" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="L124" s="4" t="s">
         <v>3</v>
       </c>
       <c r="M124" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N124" s="17" t="s">
         <v>4</v>
@@ -6765,53 +6782,53 @@
         <v>11</v>
       </c>
       <c r="C125" s="6">
-        <v>204507.5</v>
+        <v>504372</v>
       </c>
       <c r="D125" s="6">
-        <v>169877</v>
+        <v>341725</v>
       </c>
       <c r="E125" s="6">
-        <v>217847</v>
+        <v>491077.5</v>
       </c>
       <c r="F125" s="6">
-        <v>14737</v>
+        <v>367717</v>
       </c>
       <c r="G125" s="6">
-        <v>-48559</v>
+        <v>64013.5</v>
       </c>
       <c r="H125" s="6">
-        <v>-39246</v>
+        <v>74656</v>
       </c>
       <c r="I125" s="7">
-        <v>-57723</v>
+        <v>94699</v>
       </c>
       <c r="J125"/>
       <c r="K125" s="5" t="s">
         <v>11</v>
       </c>
       <c r="L125" s="6">
-        <v>273716</v>
+        <v>50160</v>
       </c>
       <c r="M125" s="6">
-        <v>127208</v>
+        <v>553229</v>
       </c>
       <c r="N125" s="6">
-        <v>355709.5</v>
+        <v>637246</v>
       </c>
       <c r="O125" s="6">
-        <v>167088</v>
+        <v>576884.5</v>
       </c>
       <c r="P125" s="6">
-        <v>128874.5</v>
+        <v>297185</v>
       </c>
       <c r="Q125" s="6">
-        <v>61804</v>
+        <v>139994</v>
       </c>
       <c r="R125" s="6">
-        <v>83695</v>
+        <v>82379.5</v>
       </c>
       <c r="S125" s="7">
-        <v>121593</v>
+        <v>120557.5</v>
       </c>
       <c r="T125" s="1"/>
     </row>
@@ -6821,53 +6838,53 @@
         <v>12</v>
       </c>
       <c r="C126" s="6">
-        <v>7729</v>
+        <v>25322</v>
       </c>
       <c r="D126" s="6">
-        <v>1095</v>
+        <v>9445</v>
       </c>
       <c r="E126" s="6">
-        <v>5442.5</v>
+        <v>19327.5</v>
       </c>
       <c r="F126" s="6">
-        <v>414</v>
+        <v>16108.5</v>
       </c>
       <c r="G126" s="6">
-        <v>-1848</v>
+        <v>5633.5</v>
       </c>
       <c r="H126" s="6">
-        <v>-3488.5</v>
+        <v>8882</v>
       </c>
       <c r="I126" s="7">
-        <v>-3474</v>
+        <v>4931</v>
       </c>
       <c r="J126"/>
       <c r="K126" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L126" s="6">
-        <v>7264.5</v>
+        <v>1208</v>
       </c>
       <c r="M126" s="6">
-        <v>12680</v>
+        <v>18241.5</v>
       </c>
       <c r="N126" s="6">
-        <v>3765</v>
+        <v>11917</v>
       </c>
       <c r="O126" s="6">
-        <v>3662.5</v>
+        <v>15424.5</v>
       </c>
       <c r="P126" s="6">
-        <v>3765</v>
+        <v>12321</v>
       </c>
       <c r="Q126" s="6">
-        <v>2350.5</v>
+        <v>9375</v>
       </c>
       <c r="R126" s="6">
-        <v>4918.5</v>
+        <v>7832</v>
       </c>
       <c r="S126" s="7">
-        <v>10194.5</v>
+        <v>10722</v>
       </c>
       <c r="T126" s="1"/>
     </row>
@@ -6877,53 +6894,53 @@
         <v>13</v>
       </c>
       <c r="C127" s="9">
-        <v>0.63500000000000001</v>
+        <v>1.0350000000000001</v>
       </c>
       <c r="D127" s="10">
-        <v>0.32</v>
+        <v>0.79</v>
       </c>
       <c r="E127" s="10">
-        <v>0.505</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="F127" s="10">
-        <v>3.5000000000000003E-2</v>
+        <v>0.7</v>
       </c>
       <c r="G127" s="10">
-        <v>-0.09</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="H127" s="10">
-        <v>-7.0000000000000007E-2</v>
+        <v>0.315</v>
       </c>
       <c r="I127" s="11">
-        <v>-0.16499999999999998</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="J127"/>
       <c r="K127" s="8" t="s">
         <v>13</v>
       </c>
       <c r="L127" s="9">
-        <v>0.67500000000000004</v>
+        <v>0.1</v>
       </c>
       <c r="M127" s="9">
-        <v>0.38</v>
+        <v>0.875</v>
       </c>
       <c r="N127" s="10">
-        <v>0.62</v>
+        <v>1.1349999999999998</v>
       </c>
       <c r="O127" s="10">
-        <v>0.33</v>
+        <v>1.02</v>
       </c>
       <c r="P127" s="10">
-        <v>0.33500000000000002</v>
+        <v>0.66</v>
       </c>
       <c r="Q127" s="10">
-        <v>0.17499999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="R127" s="10">
-        <v>0.18</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="S127" s="11">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="T127" s="1"/>
     </row>
@@ -6933,53 +6950,53 @@
         <v>14</v>
       </c>
       <c r="C128" s="12">
+        <v>79</v>
+      </c>
+      <c r="D128" s="2">
+        <v>66</v>
+      </c>
+      <c r="E128" s="2">
+        <v>76.5</v>
+      </c>
+      <c r="F128" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="G128" s="2">
+        <v>63</v>
+      </c>
+      <c r="H128" s="2">
         <v>67</v>
       </c>
-      <c r="D128" s="2">
-        <v>62.5</v>
-      </c>
-      <c r="E128" s="2">
-        <v>62.5</v>
-      </c>
-      <c r="F128" s="2">
-        <v>59.5</v>
-      </c>
-      <c r="G128" s="2">
-        <v>56</v>
-      </c>
-      <c r="H128" s="2">
-        <v>60</v>
-      </c>
       <c r="I128" s="13">
-        <v>44.5</v>
+        <v>67</v>
       </c>
       <c r="J128"/>
       <c r="K128" s="8" t="s">
         <v>14</v>
       </c>
       <c r="L128" s="12">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="M128" s="12">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N128" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O128" s="2">
+        <v>72</v>
+      </c>
+      <c r="P128" s="2">
         <v>62</v>
       </c>
-      <c r="P128" s="2">
-        <v>59</v>
-      </c>
       <c r="Q128" s="2">
+        <v>62</v>
+      </c>
+      <c r="R128" s="2">
+        <v>61</v>
+      </c>
+      <c r="S128" s="13">
         <v>64</v>
-      </c>
-      <c r="R128" s="2">
-        <v>64</v>
-      </c>
-      <c r="S128" s="13">
-        <v>70</v>
       </c>
       <c r="T128" s="1"/>
     </row>
@@ -6989,53 +7006,53 @@
         <v>15</v>
       </c>
       <c r="C129" s="15">
-        <v>-96493.5</v>
+        <v>-55827.5</v>
       </c>
       <c r="D129" s="15">
-        <v>-220148.5</v>
+        <v>-158238</v>
       </c>
       <c r="E129" s="15">
-        <v>-110463</v>
+        <v>-89293</v>
       </c>
       <c r="F129" s="15">
-        <v>-183126.5</v>
+        <v>-114931.5</v>
       </c>
       <c r="G129" s="15">
-        <v>-170898</v>
+        <v>-176001.5</v>
       </c>
       <c r="H129" s="15">
-        <v>-217874.5</v>
+        <v>-154660</v>
       </c>
       <c r="I129" s="16">
-        <v>-164917.5</v>
+        <v>-171060</v>
       </c>
       <c r="J129"/>
       <c r="K129" s="14" t="s">
         <v>15</v>
       </c>
       <c r="L129" s="15">
-        <v>-119230</v>
+        <v>-168014.5</v>
       </c>
       <c r="M129" s="15">
-        <v>-111844.5</v>
+        <v>-111762.5</v>
       </c>
       <c r="N129" s="15">
-        <v>-167323.5</v>
+        <v>-159856.5</v>
       </c>
       <c r="O129" s="15">
-        <v>-140888.5</v>
+        <v>-98286</v>
       </c>
       <c r="P129" s="15">
-        <v>-186900.5</v>
+        <v>-132624.5</v>
       </c>
       <c r="Q129" s="15">
-        <v>-138795.5</v>
+        <v>-122357</v>
       </c>
       <c r="R129" s="15">
-        <v>-283643</v>
+        <v>-102227.5</v>
       </c>
       <c r="S129" s="16">
-        <v>-127539.5</v>
+        <v>-89313</v>
       </c>
       <c r="T129" s="1"/>
     </row>
